--- a/知識點鏈結/課綱.xlsx
+++ b/知識點鏈結/課綱.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="95">
   <si>
     <t>大單元</t>
   </si>
@@ -317,6 +317,12 @@
   </si>
   <si>
     <t>積分的應用</t>
+  </si>
+  <si>
+    <t>generator_key</t>
+  </si>
+  <si>
+    <t>logarithms</t>
   </si>
 </sst>
 </file>
@@ -371,10 +377,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
@@ -667,187 +673,194 @@
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="2" width="21.4140625" customWidth="1"/>
     <col min="3" max="3" width="40.4140625" customWidth="1"/>
-    <col min="4" max="4" width="61.75" customWidth="1"/>
+    <col min="4" max="4" width="76.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="E1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
+      <c r="E3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3" t="s">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3" t="s">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3" t="s">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3" t="s">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3" t="s">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3" t="s">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3" t="s">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -855,9 +868,9 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3" t="s">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -865,9 +878,9 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3" t="s">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -875,9 +888,9 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3" t="s">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -885,13 +898,13 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -899,9 +912,9 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3" t="s">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -909,9 +922,9 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3" t="s">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -919,9 +932,9 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3" t="s">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -929,27 +942,27 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2" t="s">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="3" t="s">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="3" t="s">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -957,9 +970,9 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="3" t="s">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -967,9 +980,9 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="3" t="s">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -977,296 +990,296 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2" t="s">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="3" t="s">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
       <c r="C35" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="3" t="s">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
       <c r="C37" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="3" t="s">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="3"/>
+      <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="3" t="s">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="3"/>
+      <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="3" t="s">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="3"/>
+      <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="3" t="s">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="3"/>
+      <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="2"/>
-      <c r="B42" s="3" t="s">
+      <c r="A42" s="3"/>
+      <c r="B42" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D42" s="3"/>
+      <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D43" s="3"/>
+      <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
       <c r="C44" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D44" s="3"/>
+      <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="3" t="s">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="3"/>
+      <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="3" t="s">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D46" s="3"/>
+      <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="3" t="s">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D47" s="3"/>
+      <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="3" t="s">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="3"/>
+      <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="3" t="s">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D49" s="3"/>
+      <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="3" t="s">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D50" s="3"/>
+      <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="3" t="s">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D51" s="3"/>
+      <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4" ht="25.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="3" t="s">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="3"/>
+      <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" ht="25.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="3" t="s">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D53" s="3"/>
+      <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2" t="s">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D54" s="3"/>
+      <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="3" t="s">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D55" s="3"/>
+      <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="3" t="s">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D56" s="3"/>
+      <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
       <c r="C57" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D57" s="3"/>
+      <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" ht="25.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="3" t="s">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D58" s="3"/>
+      <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
       <c r="C59" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D59" s="3"/>
+      <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="3" t="s">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D60" s="3"/>
+      <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:4" ht="25.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="3" t="s">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D61" s="3"/>
+      <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" ht="25.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="3" t="s">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D62" s="3"/>
+      <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2" t="s">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D63" s="3"/>
+      <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
       <c r="C64" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D64" s="3"/>
+      <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="3" t="s">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D65" s="3"/>
+      <c r="D65" s="2"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="3" t="s">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D66" s="3"/>
+      <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="3" t="s">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D67" s="3"/>
+      <c r="D67" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/知識點鏈結/課綱.xlsx
+++ b/知識點鏈結/課綱.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="160">
   <si>
     <t>大單元</t>
   </si>
@@ -323,6 +323,201 @@
   </si>
   <si>
     <t>logarithms</t>
+  </si>
+  <si>
+    <t>exponents</t>
+  </si>
+  <si>
+    <t>linear_equations</t>
+  </si>
+  <si>
+    <t>circle_equations</t>
+  </si>
+  <si>
+    <t>circle_line_relations</t>
+  </si>
+  <si>
+    <t>polynomial_division</t>
+  </si>
+  <si>
+    <t>quadratic_functions</t>
+  </si>
+  <si>
+    <t>cubic_functions_graph</t>
+  </si>
+  <si>
+    <t>polynomial_inequalities</t>
+  </si>
+  <si>
+    <t>sequences_recursion</t>
+  </si>
+  <si>
+    <t>series</t>
+  </si>
+  <si>
+    <t>counting_principles</t>
+  </si>
+  <si>
+    <t>permutations</t>
+  </si>
+  <si>
+    <t>combinations</t>
+  </si>
+  <si>
+    <t>classical_probability</t>
+  </si>
+  <si>
+    <t>expected_value</t>
+  </si>
+  <si>
+    <t>data_analysis_1d</t>
+  </si>
+  <si>
+    <t>data_analysis_2d</t>
+  </si>
+  <si>
+    <t>trig_ratios_right_triangle</t>
+  </si>
+  <si>
+    <t>trig_ratios_general_angle</t>
+  </si>
+  <si>
+    <t>polar_coordinates</t>
+  </si>
+  <si>
+    <t>trig_properties_laws</t>
+  </si>
+  <si>
+    <t>radian_measure</t>
+  </si>
+  <si>
+    <t>trig_graphs_periodicity</t>
+  </si>
+  <si>
+    <t>trig_sum_difference</t>
+  </si>
+  <si>
+    <t>trig_sine_cosine_combination</t>
+  </si>
+  <si>
+    <t>real_number_system</t>
+  </si>
+  <si>
+    <t>absolute_value</t>
+  </si>
+  <si>
+    <t>exponential_functions</t>
+  </si>
+  <si>
+    <t>logarithmic_properties</t>
+  </si>
+  <si>
+    <t>logarithmic_functions</t>
+  </si>
+  <si>
+    <t>vectors_2d</t>
+  </si>
+  <si>
+    <t>vectors_2d_operations</t>
+  </si>
+  <si>
+    <t>simultaneous_equations_1or2var</t>
+  </si>
+  <si>
+    <t>space_concepts</t>
+  </si>
+  <si>
+    <t>vectors_3d_coordinates</t>
+  </si>
+  <si>
+    <t>vectors_3d_operations</t>
+  </si>
+  <si>
+    <t>determinant_3x3</t>
+  </si>
+  <si>
+    <t>planes_in_space</t>
+  </si>
+  <si>
+    <t>lines_in_space</t>
+  </si>
+  <si>
+    <t>function_properties</t>
+  </si>
+  <si>
+    <t>matrix_applications</t>
+  </si>
+  <si>
+    <t>simultaneous_equations_3var</t>
+  </si>
+  <si>
+    <t>matrix_operations</t>
+  </si>
+  <si>
+    <t>ratio_in_plane</t>
+  </si>
+  <si>
+    <t>coordinate_systems</t>
+  </si>
+  <si>
+    <t>conic_sections</t>
+  </si>
+  <si>
+    <t>parabola</t>
+  </si>
+  <si>
+    <t>ellipse</t>
+  </si>
+  <si>
+    <t>hyperbola</t>
+  </si>
+  <si>
+    <t>quadratic_curves</t>
+  </si>
+  <si>
+    <t>linear_programming</t>
+  </si>
+  <si>
+    <t>conditional_probability</t>
+  </si>
+  <si>
+    <t>bayes_theorem</t>
+  </si>
+  <si>
+    <t>discrete_random_variables</t>
+  </si>
+  <si>
+    <t>binomial_geometric_distributions</t>
+  </si>
+  <si>
+    <t>binomial_distribution</t>
+  </si>
+  <si>
+    <t>complex_roots_polynomials</t>
+  </si>
+  <si>
+    <t>complex_numbers_geometry</t>
+  </si>
+  <si>
+    <t>complex_plane</t>
+  </si>
+  <si>
+    <t>polynomials_intro</t>
+  </si>
+  <si>
+    <t>sequence_limits_infinite_series</t>
+  </si>
+  <si>
+    <t>functions_limits</t>
+  </si>
+  <si>
+    <t>differentiation</t>
+  </si>
+  <si>
+    <t>integration</t>
+  </si>
+  <si>
+    <t>integration_applications</t>
   </si>
 </sst>
 </file>
@@ -371,16 +566,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64:B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
@@ -695,10 +887,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -707,10 +899,17 @@
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
@@ -722,142 +921,250 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2"/>
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="2"/>
+      <c r="E5" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="2"/>
+      <c r="E6" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="2"/>
+      <c r="E7" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="2"/>
+      <c r="E8" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="2"/>
+      <c r="E9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2"/>
+      <c r="E10" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="2"/>
+      <c r="E11" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="2"/>
+      <c r="E12" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="2"/>
+      <c r="E13" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="2"/>
+      <c r="E14" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="2"/>
+      <c r="E15" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="E16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C17" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="E17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="E18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
+      <c r="E19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -866,42 +1173,66 @@
       <c r="D20" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="E20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="C21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+      <c r="E21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="C22" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+      <c r="E22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="C23" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="3" t="s">
+      <c r="E23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -910,161 +1241,281 @@
       <c r="D24" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="E24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="C25" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+      <c r="E25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="C26" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
+      <c r="E26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="C27" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3" t="s">
+      <c r="E27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
+      <c r="E28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C29" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
+      <c r="E29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C30" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+      <c r="E30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C31" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
+      <c r="E31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C32" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3" t="s">
+      <c r="E32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
+      <c r="E33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C34" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
+      <c r="E34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C35" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
+      <c r="E35" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C36" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
+      <c r="E36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C37" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
+      <c r="E37" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C38" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
+      <c r="E38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C39" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
+      <c r="E39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C40" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
+      <c r="E40" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C41" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="3"/>
+      <c r="E41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="B42" s="2" t="s">
         <v>65</v>
       </c>
@@ -1072,232 +1523,386 @@
         <v>66</v>
       </c>
       <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A43" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" s="3" t="s">
+      <c r="E42" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
+      <c r="E43" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C44" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
+      <c r="E44" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C45" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
+      <c r="E45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C46" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
+      <c r="E46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C47" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
+      <c r="E47" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C48" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
+      <c r="E48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C49" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
+      <c r="E49" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C50" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
+      <c r="E50" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C51" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="1:4" ht="25.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
+      <c r="E51" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="25.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C52" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="1:4" ht="25.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
+      <c r="E52" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="25.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C53" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3" t="s">
+      <c r="E53" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
+      <c r="E54" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C55" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
+      <c r="E55" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C56" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
+      <c r="E56" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C57" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="1:4" ht="25.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
+      <c r="E57" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="25.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C58" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
+      <c r="E58" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C59" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
+      <c r="E59" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A60" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C60" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="1:4" ht="25.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
+      <c r="E60" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="25.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C61" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="1:4" ht="25.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
+      <c r="E61" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="25.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C62" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3" t="s">
+      <c r="E62" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A63" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
+      <c r="E63" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A64" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="C64" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
+      <c r="E64" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A65" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="C65" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
+      <c r="E65" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A66" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="C66" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
+      <c r="E66" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A67" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="C67" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D67" s="2"/>
+      <c r="E67" t="s">
+        <v>159</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A43:A67"/>
-    <mergeCell ref="B43:B53"/>
-    <mergeCell ref="B54:B62"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="A24:A42"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="B33:B41"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B6"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/知識點鏈結/課綱.xlsx
+++ b/知識點鏈結/課綱.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="159">
   <si>
     <t>大單元</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>多項式不等式</t>
-  </si>
-  <si>
-    <t>(同廣義角三角比 )</t>
   </si>
   <si>
     <t>十年級</t>
@@ -92,9 +89,6 @@
     <t>數列與遞迴關係</t>
   </si>
   <si>
-    <t>級數</t>
-  </si>
-  <si>
     <t>計數原理</t>
   </si>
   <si>
@@ -102,9 +96,6 @@
   </si>
   <si>
     <t>組合</t>
-  </si>
-  <si>
-    <t>古典機率</t>
   </si>
   <si>
     <t>數學期望值</t>
@@ -133,9 +124,6 @@
     <t>認識有向角、同界角及其他名詞 
 了解廣義角的三角比意義 
 能換算...角與銳角的三角比</t>
-  </si>
-  <si>
-    <t>與極坐標</t>
   </si>
   <si>
     <t>三角比的性質</t>
@@ -518,13 +506,25 @@
   </si>
   <si>
     <t>integration_applications</t>
+  </si>
+  <si>
+    <t>級數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古典機率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>極坐標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,6 +544,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -566,12 +573,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -857,7 +867,7 @@
   <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64:B67"/>
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
@@ -883,1023 +893,1021 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" s="1"/>
       <c r="E22" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D31" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E31" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="25.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="25.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="25.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="25.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="25.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
